--- a/02_ZEITPLAN/zeitplan_26.02.2020_v02.xlsx
+++ b/02_ZEITPLAN/zeitplan_26.02.2020_v02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josiah\Documents\IPA2020_JOSIAH_SCHIESS\02_ZEITPLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB3B171-2C95-42D2-AC99-A5C581E75BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF83E66A-57B5-4F5D-80F6-A3BA8A2A2156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{74D2615D-1CED-415F-A807-8E49B652F1F1}"/>
+    <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15990" xr2:uid="{74D2615D-1CED-415F-A807-8E49B652F1F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan final" sheetId="2" r:id="rId1"/>
@@ -4092,9 +4092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47C3C77-DD25-4E69-9FF0-12031AADE1AE}">
   <dimension ref="A1:AX81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69:AM70"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP58" sqref="AP58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C71" s="38">
         <f>SUM(D72:AU72)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -8313,7 +8313,9 @@
       <c r="AJ72" s="11"/>
       <c r="AK72" s="11"/>
       <c r="AL72" s="11"/>
-      <c r="AM72" s="11"/>
+      <c r="AM72" s="11">
+        <v>1</v>
+      </c>
       <c r="AN72" s="11"/>
       <c r="AO72" s="11"/>
       <c r="AP72" s="11"/>
@@ -8676,7 +8678,7 @@
       </c>
       <c r="C78" s="25">
         <f>SUM(C5:C76)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D78" s="15" cm="1">
         <f t="array" ref="D78">SUM(IF(MOD(1+ ROW( Table24[[#All],[Column1]:[Column4]]),2)=0,Table24[[#All],[Column1]:[Column4]],0))</f>
@@ -8808,7 +8810,7 @@
       </c>
       <c r="AM78" s="16" cm="1">
         <f t="array" ref="AM78">SUM(IF(MOD(ROW(Table24[[#All],[Column65]:[Column68]]),2)=0,Table24[[#All],[Column65]:[Column68]],0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN78" s="16" cm="1">
         <f t="array" ref="AN78">SUM(IF(MOD(1+ ROW(Table24[[#All],[Column69]:[Column72]]),2)=0,Table24[[#All],[Column69]:[Column72]],0))</f>
